--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish V\Documents\Uipath\The_Automation_Challenge_Perfromer_RE_Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B7EFC8-FDC7-4EB2-A109-58D0535E3673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5250E29D-838A-4639-9DF8-C6BCBF7B5768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Company_Data</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.theautomationchallenge.com/</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -616,7 +622,14 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
